--- a/data/Pica.xlsx
+++ b/data/Pica.xlsx
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Proyecto Botadero de Estériles 11</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,16 +4130,16 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>100</v>
+        <v>20000</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6596710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Proyecto Botadero de Estériles 11</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,16 +4178,16 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6596710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7399,11 +7399,11 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,11 +7447,11 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Instalación de un Motor Generador en el sector Casa de Fuerza (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7634,16 +7634,16 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>25100</v>
+        <v>20</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3196374&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Instalación de un Motor Generador en el sector Casa de Fuerza (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7682,16 +7682,16 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>20</v>
+        <v>25100</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3196374&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Centro Turístico New Oriental (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8594,16 +8594,16 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>New Oriental Ltda. . .</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>1750</v>
+        <v>1533</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2732298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Proyecto Centro Turístico New Oriental (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8642,16 +8642,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>New Oriental Ltda. . .</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>1533</v>
+        <v>1750</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2732298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Conjunto de Vivienda Economica, Comite Oasis de Pica Oasis de Pica (e-seia)</t>
+          <t>Cultivo de Spirulina (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Ermelinda Lopez Mir</t>
+          <t>Gerardo Antonio Grimaldi Rojas</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1784360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Cultivo de Spirulina (e-seia)</t>
+          <t>Conjunto de Vivienda Economica, Comite Oasis de Pica Oasis de Pica (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,11 +10183,11 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Gerardo Antonio Grimaldi Rojas</t>
+          <t>Ermelinda Lopez Mir</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>153</v>
+        <v>1</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1784360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">

--- a/data/Pica.xlsx
+++ b/data/Pica.xlsx
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Proyecto Botadero de Estériles 11</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,16 +4130,16 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6596710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Proyecto Botadero de Estériles 11</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,16 +4178,16 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>100</v>
+        <v>20000</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6596710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7399,11 +7399,11 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,11 +7447,11 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Instalación de un Motor Generador en el sector Casa de Fuerza (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7634,16 +7634,16 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>20</v>
+        <v>25100</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3196374&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Instalación de un Motor Generador en el sector Casa de Fuerza (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7682,16 +7682,16 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>25100</v>
+        <v>20</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3196374&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Proyecto Centro Turístico New Oriental (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8594,16 +8594,16 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>New Oriental Ltda. . .</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>1533</v>
+        <v>1750</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2732298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Centro Turístico New Oriental (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8642,16 +8642,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>New Oriental Ltda. . .</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>1750</v>
+        <v>1533</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2732298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Cultivo de Spirulina (e-seia)</t>
+          <t>Conjunto de Vivienda Economica, Comite Oasis de Pica Oasis de Pica (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Gerardo Antonio Grimaldi Rojas</t>
+          <t>Ermelinda Lopez Mir</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>153</v>
+        <v>1</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1784360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Conjunto de Vivienda Economica, Comite Oasis de Pica Oasis de Pica (e-seia)</t>
+          <t>Cultivo de Spirulina (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,11 +10183,11 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Ermelinda Lopez Mir</t>
+          <t>Gerardo Antonio Grimaldi Rojas</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1784360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">

--- a/data/Pica.xlsx
+++ b/data/Pica.xlsx
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Proyecto Botadero de Estériles 11</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,16 +4178,16 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6596710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Proyecto Botadero de Estériles 11</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,16 +4226,16 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>100</v>
+        <v>20000</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6596710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,11 +7447,11 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Instalación de un Motor Generador en el sector Casa de Fuerza (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7682,16 +7682,16 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>20</v>
+        <v>25100</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3196374&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Instalación de un Motor Generador en el sector Casa de Fuerza (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,16 +7730,16 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>25100</v>
+        <v>20</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3196374&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Proyecto Centro Turístico New Oriental (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8642,16 +8642,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>New Oriental Ltda. . .</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>1533</v>
+        <v>1750</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2732298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Centro Turístico New Oriental (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>New Oriental Ltda. . .</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>1750</v>
+        <v>1533</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2732298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Cultivo de Spirulina (e-seia)</t>
+          <t>Conjunto de Vivienda Economica, Comite Oasis de Pica Oasis de Pica (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,11 +10183,11 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Gerardo Antonio Grimaldi Rojas</t>
+          <t>Ermelinda Lopez Mir</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>153</v>
+        <v>1</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1784360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Conjunto de Vivienda Economica, Comite Oasis de Pica Oasis de Pica (e-seia)</t>
+          <t>Cultivo de Spirulina (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Ermelinda Lopez Mir</t>
+          <t>Gerardo Antonio Grimaldi Rojas</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1784360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">

--- a/data/Pica.xlsx
+++ b/data/Pica.xlsx
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Proyecto Botadero de Estériles 11</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,16 +4178,16 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>100</v>
+        <v>20000</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6596710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Proyecto Botadero de Estériles 11</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,16 +4226,16 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6596710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,11 +7447,11 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Instalación de un Motor Generador en el sector Casa de Fuerza (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7682,16 +7682,16 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>25100</v>
+        <v>20</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3196374&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Instalación de un Motor Generador en el sector Casa de Fuerza (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,16 +7730,16 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>20</v>
+        <v>25100</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3196374&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Centro Turístico New Oriental (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8642,16 +8642,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>New Oriental Ltda. . .</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>1750</v>
+        <v>1533</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2732298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Proyecto Centro Turístico New Oriental (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>New Oriental Ltda. . .</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>1533</v>
+        <v>1750</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2732298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Conjunto de Vivienda Economica, Comite Oasis de Pica Oasis de Pica (e-seia)</t>
+          <t>Cultivo de Spirulina (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,11 +10183,11 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Ermelinda Lopez Mir</t>
+          <t>Gerardo Antonio Grimaldi Rojas</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1784360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Cultivo de Spirulina (e-seia)</t>
+          <t>Conjunto de Vivienda Economica, Comite Oasis de Pica Oasis de Pica (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Gerardo Antonio Grimaldi Rojas</t>
+          <t>Ermelinda Lopez Mir</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>153</v>
+        <v>1</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1784360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">

--- a/data/Pica.xlsx
+++ b/data/Pica.xlsx
@@ -3428,7 +3428,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">

--- a/data/Pica.xlsx
+++ b/data/Pica.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/03/2022</t>
+          <t>23/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Proyecto Botadero de Estériles 11</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,16 +4178,16 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>100</v>
+        <v>20000</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6596710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Proyecto Botadero de Estériles 11</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,16 +4226,16 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6596710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,11 +7447,11 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Instalación de un Motor Generador en el sector Casa de Fuerza (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7682,16 +7682,16 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>25100</v>
+        <v>20</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3196374&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Instalación de un Motor Generador en el sector Casa de Fuerza (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,16 +7730,16 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>20</v>
+        <v>25100</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3196374&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Centro Turístico New Oriental (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8642,16 +8642,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>New Oriental Ltda. . .</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>1750</v>
+        <v>1533</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2732298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Proyecto Centro Turístico New Oriental (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>New Oriental Ltda. . .</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>1533</v>
+        <v>1750</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2732298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Conjunto de Vivienda Economica, Comite Oasis de Pica Oasis de Pica (e-seia)</t>
+          <t>Cultivo de Spirulina (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,11 +10183,11 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Ermelinda Lopez Mir</t>
+          <t>Gerardo Antonio Grimaldi Rojas</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1784360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Cultivo de Spirulina (e-seia)</t>
+          <t>Conjunto de Vivienda Economica, Comite Oasis de Pica Oasis de Pica (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Gerardo Antonio Grimaldi Rojas</t>
+          <t>Ermelinda Lopez Mir</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>153</v>
+        <v>1</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1784360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">

--- a/data/Pica.xlsx
+++ b/data/Pica.xlsx
@@ -1215,7 +1215,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>18/08/2019</t>
+          <t>19/08/2019</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">

--- a/data/Pica.xlsx
+++ b/data/Pica.xlsx
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Proyecto Botadero de Estériles 11</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,16 +4226,16 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>100</v>
+        <v>20000</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6596710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Proyecto Botadero de Estériles 11</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,16 +4274,16 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6596710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Instalación de un Motor Generador en el sector Casa de Fuerza (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,16 +7730,16 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>25100</v>
+        <v>20</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3196374&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Instalación de un Motor Generador en el sector Casa de Fuerza (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,16 +7778,16 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>20</v>
+        <v>25100</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3196374&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Centro Turístico New Oriental (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>New Oriental Ltda. . .</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>1750</v>
+        <v>1533</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2732298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Proyecto Centro Turístico New Oriental (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>New Oriental Ltda. . .</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>1533</v>
+        <v>1750</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2732298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Conjunto de Vivienda Economica, Comite Oasis de Pica Oasis de Pica (e-seia)</t>
+          <t>Cultivo de Spirulina (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Ermelinda Lopez Mir</t>
+          <t>Gerardo Antonio Grimaldi Rojas</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1784360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Cultivo de Spirulina (e-seia)</t>
+          <t>Conjunto de Vivienda Economica, Comite Oasis de Pica Oasis de Pica (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Gerardo Antonio Grimaldi Rojas</t>
+          <t>Ermelinda Lopez Mir</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>153</v>
+        <v>1</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1784360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">

--- a/data/Pica.xlsx
+++ b/data/Pica.xlsx
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Proyecto Botadero de Estériles 11</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,16 +4226,16 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6596710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Proyecto Botadero de Estériles 11</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,16 +4274,16 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>100</v>
+        <v>20000</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6596710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Instalación de un Motor Generador en el sector Casa de Fuerza (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,16 +7730,16 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>20</v>
+        <v>25100</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3196374&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Instalación de un Motor Generador en el sector Casa de Fuerza (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,16 +7778,16 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>25100</v>
+        <v>20</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3196374&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Proyecto Centro Turístico New Oriental (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>New Oriental Ltda. . .</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>1533</v>
+        <v>1750</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2732298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Centro Turístico New Oriental (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>New Oriental Ltda. . .</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>1750</v>
+        <v>1533</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2732298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Cultivo de Spirulina (e-seia)</t>
+          <t>Conjunto de Vivienda Economica, Comite Oasis de Pica Oasis de Pica (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Gerardo Antonio Grimaldi Rojas</t>
+          <t>Ermelinda Lopez Mir</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>153</v>
+        <v>1</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1784360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Conjunto de Vivienda Economica, Comite Oasis de Pica Oasis de Pica (e-seia)</t>
+          <t>Cultivo de Spirulina (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Ermelinda Lopez Mir</t>
+          <t>Gerardo Antonio Grimaldi Rojas</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1784360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">

--- a/data/Pica.xlsx
+++ b/data/Pica.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/06/2022</t>
+          <t>28/06/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Pica.xlsx
+++ b/data/Pica.xlsx
@@ -1263,7 +1263,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>19/08/2019</t>
+          <t>18/08/2019</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Proyecto Botadero de Estériles 11</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,16 +4226,16 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>100</v>
+        <v>20000</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6596710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Proyecto Botadero de Estériles 11</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,16 +4274,16 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6596710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Instalación de un Motor Generador en el sector Casa de Fuerza (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,16 +7730,16 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>25100</v>
+        <v>20</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3196374&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Instalación de un Motor Generador en el sector Casa de Fuerza (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,16 +7778,16 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>20</v>
+        <v>25100</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3196374&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Centro Turístico New Oriental (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>New Oriental Ltda. . .</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>1750</v>
+        <v>1533</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2732298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Proyecto Centro Turístico New Oriental (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>New Oriental Ltda. . .</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>1533</v>
+        <v>1750</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2732298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Conjunto de Vivienda Economica, Comite Oasis de Pica Oasis de Pica (e-seia)</t>
+          <t>Cultivo de Spirulina (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Ermelinda Lopez Mir</t>
+          <t>Gerardo Antonio Grimaldi Rojas</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1784360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Cultivo de Spirulina (e-seia)</t>
+          <t>Conjunto de Vivienda Economica, Comite Oasis de Pica Oasis de Pica (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Gerardo Antonio Grimaldi Rojas</t>
+          <t>Ermelinda Lopez Mir</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>153</v>
+        <v>1</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1784360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">

--- a/data/Pica.xlsx
+++ b/data/Pica.xlsx
@@ -6871,7 +6871,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F136" t="n">

--- a/data/Pica.xlsx
+++ b/data/Pica.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Minera Teck Quebrada Blanca</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -727,7 +727,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -2791,7 +2791,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -4231,7 +4231,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -4327,7 +4327,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -4375,7 +4375,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -4615,7 +4615,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -4951,7 +4951,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -7207,7 +7207,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F143" t="n">
@@ -7783,7 +7783,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F155" t="n">
@@ -10135,7 +10135,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F204" t="n">
@@ -10375,7 +10375,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F209" t="n">
@@ -10999,7 +10999,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F222" t="n">
@@ -11239,7 +11239,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F227" t="n">
@@ -12103,7 +12103,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F245" t="n">
@@ -12343,7 +12343,7 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F250" t="n">
@@ -13543,7 +13543,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F275" t="n">
@@ -13639,7 +13639,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F277" t="n">
@@ -13783,7 +13783,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F280" t="n">
@@ -13831,7 +13831,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F281" t="n">
@@ -14311,7 +14311,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F291" t="n">
@@ -14503,7 +14503,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F295" t="n">
@@ -14647,7 +14647,7 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F298" t="n">

--- a/data/Pica.xlsx
+++ b/data/Pica.xlsx
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Proyecto Botadero de Estériles 11</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,16 +4226,16 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6596710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Proyecto Botadero de Estériles 11</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,16 +4274,16 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>100</v>
+        <v>20000</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6596710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Instalación de un Motor Generador en el sector Casa de Fuerza (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,16 +7730,16 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>20</v>
+        <v>25100</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3196374&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Instalación de un Motor Generador en el sector Casa de Fuerza (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,16 +7778,16 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>25100</v>
+        <v>20</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3196374&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Proyecto Centro Turístico New Oriental (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>New Oriental Ltda. . .</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>1533</v>
+        <v>1750</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2732298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Centro Turístico New Oriental (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>New Oriental Ltda. . .</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>1750</v>
+        <v>1533</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2732298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Cultivo de Spirulina (e-seia)</t>
+          <t>Conjunto de Vivienda Economica, Comite Oasis de Pica Oasis de Pica (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Gerardo Antonio Grimaldi Rojas</t>
+          <t>Ermelinda Lopez Mir</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>153</v>
+        <v>1</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1784360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Conjunto de Vivienda Economica, Comite Oasis de Pica Oasis de Pica (e-seia)</t>
+          <t>Cultivo de Spirulina (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Ermelinda Lopez Mir</t>
+          <t>Gerardo Antonio Grimaldi Rojas</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1784360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">

--- a/data/Pica.xlsx
+++ b/data/Pica.xlsx
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Proyecto Botadero de Estériles 11</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,16 +4226,16 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>100</v>
+        <v>20000</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6596710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Proyecto Botadero de Estériles 11</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,16 +4274,16 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6596710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Instalación de un Motor Generador en el sector Casa de Fuerza (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,16 +7730,16 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>25100</v>
+        <v>20</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3196374&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Instalación de un Motor Generador en el sector Casa de Fuerza (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,16 +7778,16 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>20</v>
+        <v>25100</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3196374&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Centro Turístico New Oriental (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>New Oriental Ltda. . .</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>1750</v>
+        <v>1533</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2732298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Proyecto Centro Turístico New Oriental (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>New Oriental Ltda. . .</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>1533</v>
+        <v>1750</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2732298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Conjunto de Vivienda Economica, Comite Oasis de Pica Oasis de Pica (e-seia)</t>
+          <t>Cultivo de Spirulina (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Ermelinda Lopez Mir</t>
+          <t>Gerardo Antonio Grimaldi Rojas</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1784360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Cultivo de Spirulina (e-seia)</t>
+          <t>Conjunto de Vivienda Economica, Comite Oasis de Pica Oasis de Pica (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Gerardo Antonio Grimaldi Rojas</t>
+          <t>Ermelinda Lopez Mir</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>153</v>
+        <v>1</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1784360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">

--- a/data/Pica.xlsx
+++ b/data/Pica.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/01/2023</t>
+          <t>17/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Proyecto Botadero de Estériles 11</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,16 +4274,16 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6596710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Proyecto Botadero de Estériles 11</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,16 +4322,16 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>100</v>
+        <v>20000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6596710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,11 +7591,11 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Instalación de un Motor Generador en el sector Casa de Fuerza (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,16 +7778,16 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>20</v>
+        <v>25100</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3196374&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Instalación de un Motor Generador en el sector Casa de Fuerza (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,16 +7826,16 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>25100</v>
+        <v>20</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3196374&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Proyecto Centro Turístico New Oriental (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>New Oriental Ltda. . .</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>1533</v>
+        <v>1750</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2732298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Centro Turístico New Oriental (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>New Oriental Ltda. . .</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1750</v>
+        <v>1533</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2732298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Cultivo de Spirulina (e-seia)</t>
+          <t>Conjunto de Vivienda Economica, Comite Oasis de Pica Oasis de Pica (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Gerardo Antonio Grimaldi Rojas</t>
+          <t>Ermelinda Lopez Mir</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>153</v>
+        <v>1</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1784360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Conjunto de Vivienda Economica, Comite Oasis de Pica Oasis de Pica (e-seia)</t>
+          <t>Cultivo de Spirulina (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10327,11 +10327,11 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Ermelinda Lopez Mir</t>
+          <t>Gerardo Antonio Grimaldi Rojas</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1784360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">

--- a/data/Pica.xlsx
+++ b/data/Pica.xlsx
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Proyecto Botadero de Estériles 11</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,16 +4274,16 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>100</v>
+        <v>20000</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6596710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Proyecto Botadero de Estériles 11</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,16 +4322,16 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6596710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,11 +7591,11 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Instalación de un Motor Generador en el sector Casa de Fuerza (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,16 +7778,16 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>25100</v>
+        <v>20</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3196374&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Instalación de un Motor Generador en el sector Casa de Fuerza (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,16 +7826,16 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>20</v>
+        <v>25100</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3196374&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Centro Turístico New Oriental (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>New Oriental Ltda. . .</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>1750</v>
+        <v>1533</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2732298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Proyecto Centro Turístico New Oriental (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>New Oriental Ltda. . .</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1533</v>
+        <v>1750</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2732298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Conjunto de Vivienda Economica, Comite Oasis de Pica Oasis de Pica (e-seia)</t>
+          <t>Cultivo de Spirulina (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Ermelinda Lopez Mir</t>
+          <t>Gerardo Antonio Grimaldi Rojas</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1784360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Cultivo de Spirulina (e-seia)</t>
+          <t>Conjunto de Vivienda Economica, Comite Oasis de Pica Oasis de Pica (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10327,11 +10327,11 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Gerardo Antonio Grimaldi Rojas</t>
+          <t>Ermelinda Lopez Mir</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>153</v>
+        <v>1</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1784360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">

--- a/data/Pica.xlsx
+++ b/data/Pica.xlsx
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Proyecto Botadero de Estériles 11</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,16 +4274,16 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6596710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Proyecto Botadero de Estériles 11</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,16 +4322,16 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>100</v>
+        <v>20000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6596710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,11 +7591,11 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Instalación de un Motor Generador en el sector Casa de Fuerza (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,16 +7778,16 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>20</v>
+        <v>25100</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3196374&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Instalación de un Motor Generador en el sector Casa de Fuerza (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,16 +7826,16 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>25100</v>
+        <v>20</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3196374&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Proyecto Centro Turístico New Oriental (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>New Oriental Ltda. . .</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>1533</v>
+        <v>1750</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2732298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Centro Turístico New Oriental (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>New Oriental Ltda. . .</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1750</v>
+        <v>1533</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2732298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Cultivo de Spirulina (e-seia)</t>
+          <t>Conjunto de Vivienda Economica, Comite Oasis de Pica Oasis de Pica (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Gerardo Antonio Grimaldi Rojas</t>
+          <t>Ermelinda Lopez Mir</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>153</v>
+        <v>1</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1784360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Conjunto de Vivienda Economica, Comite Oasis de Pica Oasis de Pica (e-seia)</t>
+          <t>Cultivo de Spirulina (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10327,11 +10327,11 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Ermelinda Lopez Mir</t>
+          <t>Gerardo Antonio Grimaldi Rojas</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1784360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">

--- a/data/Pica.xlsx
+++ b/data/Pica.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/02/2023</t>
+          <t>23/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Pica.xlsx
+++ b/data/Pica.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">

--- a/data/Pica.xlsx
+++ b/data/Pica.xlsx
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Transporte terrestre de ácido sulfúrico y PLS entre la región de Arica y Parinacota y Valparaíso</t>
+          <t>Transporte terrestre de ácido sulfúrico entre la región de Arica y Parinacota y Atacama</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Proyecto Botadero de Estériles 11</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,16 +4274,16 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6596710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Proyecto Botadero de Estériles 11</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,16 +4322,16 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>100</v>
+        <v>20000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6596710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,11 +7591,11 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Instalación de un Motor Generador en el sector Casa de Fuerza (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,16 +7778,16 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>20</v>
+        <v>25100</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3196374&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Instalación de un Motor Generador en el sector Casa de Fuerza (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,16 +7826,16 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>25100</v>
+        <v>20</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3196374&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Proyecto Centro Turístico New Oriental (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>New Oriental Ltda. . .</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>1533</v>
+        <v>1750</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2732298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Centro Turístico New Oriental (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>New Oriental Ltda. . .</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1750</v>
+        <v>1533</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2732298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Cultivo de Spirulina (e-seia)</t>
+          <t>Conjunto de Vivienda Economica, Comite Oasis de Pica Oasis de Pica (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Gerardo Antonio Grimaldi Rojas</t>
+          <t>Ermelinda Lopez Mir</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>153</v>
+        <v>1</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1784360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Conjunto de Vivienda Economica, Comite Oasis de Pica Oasis de Pica (e-seia)</t>
+          <t>Cultivo de Spirulina (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10327,11 +10327,11 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Ermelinda Lopez Mir</t>
+          <t>Gerardo Antonio Grimaldi Rojas</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1784360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">

--- a/data/Pica.xlsx
+++ b/data/Pica.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Pica.xlsx
+++ b/data/Pica.xlsx
@@ -1311,7 +1311,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>18/08/2019</t>
+          <t>19/08/2019</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">

--- a/data/Pica.xlsx
+++ b/data/Pica.xlsx
@@ -1311,7 +1311,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>19/08/2019</t>
+          <t>18/08/2019</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">

--- a/data/Pica.xlsx
+++ b/data/Pica.xlsx
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Proyecto Botadero de Estériles 11</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,16 +4322,16 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6596710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Proyecto Botadero de Estériles 11</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,16 +4370,16 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>100</v>
+        <v>20000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6596710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,11 +7591,11 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,11 +7639,11 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Instalación de un Motor Generador en el sector Casa de Fuerza (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,16 +7826,16 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>20</v>
+        <v>25100</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3196374&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Instalación de un Motor Generador en el sector Casa de Fuerza (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,16 +7874,16 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>25100</v>
+        <v>20</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3196374&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Proyecto Centro Turístico New Oriental (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>New Oriental Ltda. . .</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1533</v>
+        <v>1750</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2732298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Centro Turístico New Oriental (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8834,16 +8834,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>New Oriental Ltda. . .</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>1750</v>
+        <v>1533</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2732298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">

--- a/data/Pica.xlsx
+++ b/data/Pica.xlsx
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Proyecto Botadero de Estériles 11</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,16 +4322,16 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>100</v>
+        <v>20000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6596710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Proyecto Botadero de Estériles 11</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,16 +4370,16 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6596710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,11 +7591,11 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,11 +7639,11 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Instalación de un Motor Generador en el sector Casa de Fuerza (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,16 +7826,16 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>25100</v>
+        <v>20</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3196374&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Instalación de un Motor Generador en el sector Casa de Fuerza (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,16 +7874,16 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>20</v>
+        <v>25100</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3196374&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Centro Turístico New Oriental (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>New Oriental Ltda. . .</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1750</v>
+        <v>1533</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2732298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Proyecto Centro Turístico New Oriental (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8834,16 +8834,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>New Oriental Ltda. . .</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>1533</v>
+        <v>1750</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2732298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">

--- a/data/Pica.xlsx
+++ b/data/Pica.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>13/07/2023</t>
+          <t>20/07/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Pica.xlsx
+++ b/data/Pica.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Cultivo de Spirulina (e-seia)</t>
+          <t>Conjunto de Vivienda Economica, Comite Oasis de Pica Oasis de Pica (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10327,11 +10327,11 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Gerardo Antonio Grimaldi Rojas</t>
+          <t>Ermelinda Lopez Mir</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>153</v>
+        <v>1</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1784360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Conjunto de Vivienda Economica, Comite Oasis de Pica Oasis de Pica (e-seia)</t>
+          <t>Cultivo de Spirulina (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10375,11 +10375,11 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Ermelinda Lopez Mir</t>
+          <t>Gerardo Antonio Grimaldi Rojas</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1784360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">

--- a/data/Pica.xlsx
+++ b/data/Pica.xlsx
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Proyecto Botadero de Estériles 11</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,16 +4322,16 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>100</v>
+        <v>20000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6596710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Proyecto Botadero de Estériles 11</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,16 +4370,16 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6596710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,11 +7591,11 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,11 +7639,11 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Instalación de un Motor Generador en el sector Casa de Fuerza (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,16 +7826,16 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>25100</v>
+        <v>20</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3196374&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Instalación de un Motor Generador en el sector Casa de Fuerza (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,16 +7874,16 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>20</v>
+        <v>25100</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3196374&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Centro Turístico New Oriental (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>New Oriental Ltda. . .</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1750</v>
+        <v>1533</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2732298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Proyecto Centro Turístico New Oriental (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8834,16 +8834,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>New Oriental Ltda. . .</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>1533</v>
+        <v>1750</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2732298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Conjunto de Vivienda Economica, Comite Oasis de Pica Oasis de Pica (e-seia)</t>
+          <t>Cultivo de Spirulina (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10327,11 +10327,11 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Ermelinda Lopez Mir</t>
+          <t>Gerardo Antonio Grimaldi Rojas</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1784360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Cultivo de Spirulina (e-seia)</t>
+          <t>Conjunto de Vivienda Economica, Comite Oasis de Pica Oasis de Pica (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10375,11 +10375,11 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Gerardo Antonio Grimaldi Rojas</t>
+          <t>Ermelinda Lopez Mir</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>153</v>
+        <v>1</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1784360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">

--- a/data/Pica.xlsx
+++ b/data/Pica.xlsx
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Proyecto Botadero de Estériles 11</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,16 +4322,16 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6596710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Proyecto Botadero de Estériles 11</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,16 +4370,16 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>100</v>
+        <v>20000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6596710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,11 +7591,11 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,11 +7639,11 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Instalación de un Motor Generador en el sector Casa de Fuerza (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,16 +7826,16 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>20</v>
+        <v>25100</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3196374&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Instalación de un Motor Generador en el sector Casa de Fuerza (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,16 +7874,16 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>25100</v>
+        <v>20</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3196374&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Proyecto Centro Turístico New Oriental (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>New Oriental Ltda. . .</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1533</v>
+        <v>1750</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2732298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Centro Turístico New Oriental (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8834,16 +8834,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>New Oriental Ltda. . .</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>1750</v>
+        <v>1533</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2732298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Cultivo de Spirulina (e-seia)</t>
+          <t>Conjunto de Vivienda Economica, Comite Oasis de Pica Oasis de Pica (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10327,11 +10327,11 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Gerardo Antonio Grimaldi Rojas</t>
+          <t>Ermelinda Lopez Mir</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>153</v>
+        <v>1</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1784360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Conjunto de Vivienda Economica, Comite Oasis de Pica Oasis de Pica (e-seia)</t>
+          <t>Cultivo de Spirulina (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10375,11 +10375,11 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Ermelinda Lopez Mir</t>
+          <t>Gerardo Antonio Grimaldi Rojas</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1784360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1780412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
